--- a/Week 3/Weekly Report 3.xlsx
+++ b/Week 3/Weekly Report 3.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>Memtor</t>
-  </si>
-  <si>
-    <t>Recording Link</t>
   </si>
   <si>
     <t>link</t>
@@ -1407,11 +1404,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,8 +1419,7 @@
     <col min="4" max="4" width="56.5" style="22" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="22" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="7.75" style="22"/>
+    <col min="7" max="16384" width="7.75" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,7 +1566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>1</v>
       </c>
@@ -1598,12 +1594,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>5</v>
       </c>
@@ -1622,39 +1618,33 @@
       <c r="F21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>1</v>
       </c>
       <c r="B22" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="D22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="E22" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>5</v>
       </c>
@@ -1668,7 +1658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>1</v>
       </c>
@@ -1686,10 +1676,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E22" r:id="rId1"/>
-    <hyperlink ref="G22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>